--- a/src/main/resources/We_API_TDATA.xlsx
+++ b/src/main/resources/We_API_TDATA.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagarjuna/Desktop/Inteli/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD304A-CA16-4247-9C84-BF8AD5D0571D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7ABA1-B310-0948-8F7F-ECFEEA40DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Session" sheetId="2" r:id="rId2"/>
+    <sheet name="Score" sheetId="4" r:id="rId2"/>
+    <sheet name="Session" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="127">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -401,6 +402,18 @@
   </si>
   <si>
     <t>Clientid</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>model3</t>
+  </si>
+  <si>
+    <t>apitesting</t>
   </si>
 </sst>
 </file>
@@ -784,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1ADE38-9D11-FD4E-94FF-75BED71C2AE2}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1524,6 +1537,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724218FD-C108-D143-896E-A0619CE4D849}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4">
+        <v>90403</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33139</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="7">
+        <v>2146983800</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>33480</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="5">
+        <v>8053</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>6830</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5">
+        <v>77024</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5">
+        <v>46975</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="4">
+        <v>92518</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4">
+        <v>49685</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>93013</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4">
+        <v>29920</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="4">
+        <v>37923</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="4">
+        <v>61866</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7601</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="4">
+        <v>70507</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="4">
+        <v>46802</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42320</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="4">
+        <v>70125</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43906</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E0BE2-C538-3340-8DBE-16F631985AD5}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/main/resources/We_API_TDATA.xlsx
+++ b/src/main/resources/We_API_TDATA.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagarjuna/Desktop/Inteli/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7ABA1-B310-0948-8F7F-ECFEEA40DFB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C8929-E58D-5D4C-821E-9AB5D1354316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Score" sheetId="4" r:id="rId2"/>
-    <sheet name="Session" sheetId="2" r:id="rId3"/>
+    <sheet name="Networth" sheetId="5" r:id="rId2"/>
+    <sheet name="Score" sheetId="4" r:id="rId3"/>
+    <sheet name="Session" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="143">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -414,6 +417,54 @@
   </si>
   <si>
     <t>apitesting</t>
+  </si>
+  <si>
+    <t>Networth-text</t>
+  </si>
+  <si>
+    <t>Networth-value</t>
+  </si>
+  <si>
+    <t>Summary-Networth</t>
+  </si>
+  <si>
+    <t>Unable to rate</t>
+  </si>
+  <si>
+    <t>&lt;$25K</t>
+  </si>
+  <si>
+    <t>$25K-$50K</t>
+  </si>
+  <si>
+    <t>$50K-$100K</t>
+  </si>
+  <si>
+    <t>$100K-$500K</t>
+  </si>
+  <si>
+    <t>$500K-$1MM</t>
+  </si>
+  <si>
+    <t>$1MM-$5MM</t>
+  </si>
+  <si>
+    <t>$5MM-$10MM</t>
+  </si>
+  <si>
+    <t>$10MM-$25MM</t>
+  </si>
+  <si>
+    <t>$25MM-$50MM</t>
+  </si>
+  <si>
+    <t>$50MM-$100MM</t>
+  </si>
+  <si>
+    <t>$100MM-$500MM</t>
+  </si>
+  <si>
+    <t>$500MM+</t>
   </si>
 </sst>
 </file>
@@ -462,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -480,6 +531,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,7 +852,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,10 +1591,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6038850A-B779-7341-B6EF-FDF5847DA046}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" s="8">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724218FD-C108-D143-896E-A0619CE4D849}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2242,7 +2463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3E0BE2-C538-3340-8DBE-16F631985AD5}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/src/main/resources/We_API_TDATA.xlsx
+++ b/src/main/resources/We_API_TDATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagarjuna/Desktop/Inteli/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagarjuna/Desktop/Bitbucket/API-Automation/test-automation--api/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97C8929-E58D-5D4C-821E-9AB5D1354316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF37F607-4F20-E142-B1E9-E67AED160843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
+    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{9DA725DE-305A-3B44-92E6-554A81D29FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="142">
   <si>
     <t>ScenarioName</t>
   </si>
@@ -383,9 +383,6 @@
     <t>Bellaire</t>
   </si>
   <si>
-    <t>4|0 - Fair</t>
-  </si>
-  <si>
     <t>OH</t>
   </si>
   <si>
@@ -416,9 +413,6 @@
     <t>model3</t>
   </si>
   <si>
-    <t>apitesting</t>
-  </si>
-  <si>
     <t>Networth-text</t>
   </si>
   <si>
@@ -465,6 +459,9 @@
   </si>
   <si>
     <t>$500MM+</t>
+  </si>
+  <si>
+    <t>p2s_1_103844</t>
   </si>
 </sst>
 </file>
@@ -852,7 +849,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,13 +892,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -971,7 +968,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" s="7">
         <v>2146983800</v>
@@ -1569,7 +1566,7 @@
         <v>114</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1578,10 +1575,10 @@
         <v>200</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="M20" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6038850A-B779-7341-B6EF-FDF5847DA046}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1627,30 +1624,30 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M2" s="8">
         <v>0</v>
@@ -1658,7 +1655,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M3" s="8">
         <v>1</v>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M4" s="8">
         <v>2</v>
@@ -1674,7 +1671,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M5" s="8">
         <v>3</v>
@@ -1682,7 +1679,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M6" s="8">
         <v>4</v>
@@ -1690,7 +1687,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M7" s="8">
         <v>5</v>
@@ -1698,7 +1695,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M8" s="8">
         <v>6</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M9" s="8">
         <v>7</v>
@@ -1714,7 +1711,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M10" s="8">
         <v>8</v>
@@ -1722,7 +1719,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M11" s="8">
         <v>9</v>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M12" s="8">
         <v>10</v>
@@ -1738,7 +1735,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M13" s="8">
         <v>11</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="L14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M14" s="8">
         <v>12</v>
@@ -1761,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724218FD-C108-D143-896E-A0619CE4D849}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1776,7 +1773,8 @@
     <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="2"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -1804,19 +1802,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1847,7 +1845,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1855,7 +1853,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1878,19 +1876,19 @@
         <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I3" s="7">
         <v>2146983800</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M3" s="4">
         <v>200</v>
@@ -1921,7 +1919,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1954,7 +1952,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1987,7 +1985,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2020,7 +2018,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -2053,7 +2051,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -2086,7 +2084,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -2119,7 +2117,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -2152,7 +2150,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -2185,7 +2183,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2218,7 +2216,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2251,7 +2249,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2284,7 +2282,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2317,7 +2315,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2350,7 +2348,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2383,7 +2381,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2416,7 +2414,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2444,12 +2442,12 @@
         <v>114</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2482,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -2490,7 +2488,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="6">
         <v>500</v>
